--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhou\MATH3320insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60E7BE5-4BC3-4C5D-B119-69F070B9A3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686535F5-9CA8-4EEF-B453-563CF2F6FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1590" windowWidth="21600" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>smoker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>nonmosker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -519,8 +515,12 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="2">
+        <v>0.43646454914764299</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.46457236470244601</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -534,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.43646454914764299</v>
+        <v>0.38313960162899202</v>
       </c>
       <c r="C9" s="2">
-        <v>0.46457236470244601</v>
+        <v>0.40062893672132899</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -548,15 +548,9 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.38313960162899202</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.40062893672132899</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -649,18 +643,6 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
